--- a/medicine/Psychotrope/La_Franche/La_Franche.xlsx
+++ b/medicine/Psychotrope/La_Franche/La_Franche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Franche est une brasserie produisant une marque de bière artisanale dans le Jura en Franche-Comté, fondée en 2005 à la Ferté dans une grange par deux brasseurs. La brasserie passe du statut d'association à celui de SARL entre 2007[1] et 2008.
-La brasserie gagne une médaille d'or aux championnats Mbière Europe en 2011 (cette année-là, 12 médailles d'or et une médaille de platine sont décernées) pour la Franche profonde[2].
+La Franche est une brasserie produisant une marque de bière artisanale dans le Jura en Franche-Comté, fondée en 2005 à la Ferté dans une grange par deux brasseurs. La brasserie passe du statut d'association à celui de SARL entre 2007 et 2008.
+La brasserie gagne une médaille d'or aux championnats Mbière Europe en 2011 (cette année-là, 12 médailles d'or et une médaille de platine sont décernées) pour la Franche profonde.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Franche produit plusieurs sortes de bières aux noms inspirés par des jeux de mots. Les bières ne sont pas forcément suivies d'une année sur l'autre.
 La Franche profonde
@@ -522,7 +536,7 @@
 La Franche ipane - Brune
 La Franche galle - Blanche
 La Franche ie - Créations
-Quatre d'entre elles sont référencées dans le Guide Hachette des bières, dont une "coup de cœur"[3].
+Quatre d'entre elles sont référencées dans le Guide Hachette des bières, dont une "coup de cœur".
 </t>
         </is>
       </c>
